--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm-Ramp3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm-Ramp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Adm</t>
+  </si>
+  <si>
+    <t>Ramp3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Adm</t>
-  </si>
-  <si>
-    <t>Ramp3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H2">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I2">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J2">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9276133333333334</v>
+        <v>0.5477486666666667</v>
       </c>
       <c r="N2">
-        <v>2.78284</v>
+        <v>1.643246</v>
       </c>
       <c r="O2">
-        <v>0.6228334980591008</v>
+        <v>0.430739219238867</v>
       </c>
       <c r="P2">
-        <v>0.6228334980591007</v>
+        <v>0.430739219238867</v>
       </c>
       <c r="Q2">
-        <v>8.024526925386667</v>
+        <v>8.643546810572666</v>
       </c>
       <c r="R2">
-        <v>72.22074232848</v>
+        <v>77.791921295154</v>
       </c>
       <c r="S2">
-        <v>0.1489984919092182</v>
+        <v>0.1578296695429688</v>
       </c>
       <c r="T2">
-        <v>0.1489984919092182</v>
+        <v>0.1578296695429688</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H3">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I3">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J3">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4838249999999999</v>
+        <v>0.483825</v>
       </c>
       <c r="N3">
         <v>1.451475</v>
       </c>
       <c r="O3">
-        <v>0.3248577897383009</v>
+        <v>0.3804708535695413</v>
       </c>
       <c r="P3">
-        <v>0.3248577897383008</v>
+        <v>0.3804708535695413</v>
       </c>
       <c r="Q3">
-        <v>4.185436539299999</v>
+        <v>7.634822848724999</v>
       </c>
       <c r="R3">
-        <v>37.6689288537</v>
+        <v>68.713405638525</v>
       </c>
       <c r="S3">
-        <v>0.07771470369979319</v>
+        <v>0.1394105444953955</v>
       </c>
       <c r="T3">
-        <v>0.07771470369979318</v>
+        <v>0.1394105444953955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H4">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I4">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J4">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05018766666666667</v>
+        <v>0.2400743333333334</v>
       </c>
       <c r="N4">
-        <v>0.150563</v>
+        <v>0.7202230000000001</v>
       </c>
       <c r="O4">
-        <v>0.03369783385615859</v>
+        <v>0.1887899271915918</v>
       </c>
       <c r="P4">
-        <v>0.03369783385615859</v>
+        <v>0.1887899271915918</v>
       </c>
       <c r="Q4">
-        <v>0.4341596525373332</v>
+        <v>3.788404909886334</v>
       </c>
       <c r="R4">
-        <v>3.907436872836</v>
+        <v>34.095644188977</v>
       </c>
       <c r="S4">
-        <v>0.008061426433904794</v>
+        <v>0.06917561831110233</v>
       </c>
       <c r="T4">
-        <v>0.008061426433904796</v>
+        <v>0.0691756183111023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.650723999999999</v>
+        <v>26.269711</v>
       </c>
       <c r="H5">
-        <v>25.952172</v>
+        <v>78.809133</v>
       </c>
       <c r="I5">
-        <v>0.2392268437287548</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J5">
-        <v>0.2392268437287548</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.027718</v>
+        <v>0.5477486666666667</v>
       </c>
       <c r="N5">
-        <v>0.08315399999999999</v>
+        <v>1.643246</v>
       </c>
       <c r="O5">
-        <v>0.01861087834643977</v>
+        <v>0.430739219238867</v>
       </c>
       <c r="P5">
-        <v>0.01861087834643977</v>
+        <v>0.430739219238867</v>
       </c>
       <c r="Q5">
-        <v>0.2397807678319999</v>
+        <v>14.38919917396867</v>
       </c>
       <c r="R5">
-        <v>2.158026910488</v>
+        <v>129.502792565718</v>
       </c>
       <c r="S5">
-        <v>0.004452221685838614</v>
+        <v>0.2627442877775044</v>
       </c>
       <c r="T5">
-        <v>0.004452221685838614</v>
+        <v>0.2627442877775044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>78.809133</v>
       </c>
       <c r="I6">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J6">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.9276133333333334</v>
+        <v>0.483825</v>
       </c>
       <c r="N6">
-        <v>2.78284</v>
+        <v>1.451475</v>
       </c>
       <c r="O6">
-        <v>0.6228334980591008</v>
+        <v>0.3804708535695413</v>
       </c>
       <c r="P6">
-        <v>0.6228334980591007</v>
+        <v>0.3804708535695413</v>
       </c>
       <c r="Q6">
-        <v>24.36813418641334</v>
+        <v>12.709942924575</v>
       </c>
       <c r="R6">
-        <v>219.31320767772</v>
+        <v>114.389486321175</v>
       </c>
       <c r="S6">
-        <v>0.4524647095307863</v>
+        <v>0.232081359152466</v>
       </c>
       <c r="T6">
-        <v>0.4524647095307862</v>
+        <v>0.232081359152466</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>78.809133</v>
       </c>
       <c r="I7">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J7">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,33 +871,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4838249999999999</v>
+        <v>0.2400743333333334</v>
       </c>
       <c r="N7">
-        <v>1.451475</v>
+        <v>0.7202230000000001</v>
       </c>
       <c r="O7">
-        <v>0.3248577897383009</v>
+        <v>0.1887899271915918</v>
       </c>
       <c r="P7">
-        <v>0.3248577897383008</v>
+        <v>0.1887899271915918</v>
       </c>
       <c r="Q7">
-        <v>12.709942924575</v>
+        <v>6.306683355184334</v>
       </c>
       <c r="R7">
-        <v>114.389486321175</v>
+        <v>56.760150196659</v>
       </c>
       <c r="S7">
-        <v>0.2359967566465186</v>
+        <v>0.1151589470937264</v>
       </c>
       <c r="T7">
-        <v>0.2359967566465186</v>
+        <v>0.1151589470937264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.269711</v>
+        <v>0.973204</v>
       </c>
       <c r="H8">
-        <v>78.809133</v>
+        <v>2.919612</v>
       </c>
       <c r="I8">
-        <v>0.7264617444963627</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J8">
-        <v>0.7264617444963627</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.05018766666666667</v>
+        <v>0.5477486666666667</v>
       </c>
       <c r="N8">
-        <v>0.150563</v>
+        <v>1.643246</v>
       </c>
       <c r="O8">
-        <v>0.03369783385615859</v>
+        <v>0.430739219238867</v>
       </c>
       <c r="P8">
-        <v>0.03369783385615859</v>
+        <v>0.430739219238867</v>
       </c>
       <c r="Q8">
-        <v>1.318415499097667</v>
+        <v>0.5330711933946667</v>
       </c>
       <c r="R8">
-        <v>11.865739491879</v>
+        <v>4.797640740552</v>
       </c>
       <c r="S8">
-        <v>0.02448018716889356</v>
+        <v>0.009733787777193983</v>
       </c>
       <c r="T8">
-        <v>0.02448018716889356</v>
+        <v>0.009733787777193982</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.269711</v>
+        <v>0.973204</v>
       </c>
       <c r="H9">
-        <v>78.809133</v>
+        <v>2.919612</v>
       </c>
       <c r="I9">
-        <v>0.7264617444963627</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J9">
-        <v>0.7264617444963627</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.027718</v>
+        <v>0.483825</v>
       </c>
       <c r="N9">
-        <v>0.08315399999999999</v>
+        <v>1.451475</v>
       </c>
       <c r="O9">
-        <v>0.01861087834643977</v>
+        <v>0.3804708535695413</v>
       </c>
       <c r="P9">
-        <v>0.01861087834643977</v>
+        <v>0.3804708535695413</v>
       </c>
       <c r="Q9">
-        <v>0.7281438494979999</v>
+        <v>0.4708604253</v>
       </c>
       <c r="R9">
-        <v>6.553294645482</v>
+        <v>4.2377438277</v>
       </c>
       <c r="S9">
-        <v>0.01352009115016422</v>
+        <v>0.008597829913416882</v>
       </c>
       <c r="T9">
-        <v>0.01352009115016422</v>
+        <v>0.008597829913416882</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.021265</v>
+        <v>0.973204</v>
       </c>
       <c r="H10">
-        <v>0.063795</v>
+        <v>2.919612</v>
       </c>
       <c r="I10">
-        <v>0.0005880616271992926</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J10">
-        <v>0.0005880616271992925</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.9276133333333334</v>
+        <v>0.2400743333333334</v>
       </c>
       <c r="N10">
-        <v>2.78284</v>
+        <v>0.7202230000000001</v>
       </c>
       <c r="O10">
-        <v>0.6228334980591008</v>
+        <v>0.1887899271915918</v>
       </c>
       <c r="P10">
-        <v>0.6228334980591007</v>
+        <v>0.1887899271915918</v>
       </c>
       <c r="Q10">
-        <v>0.01972569753333334</v>
+        <v>0.2336413014973334</v>
       </c>
       <c r="R10">
-        <v>0.1775312778</v>
+        <v>2.102771713476</v>
       </c>
       <c r="S10">
-        <v>0.0003662644803428623</v>
+        <v>0.004266249748518471</v>
       </c>
       <c r="T10">
-        <v>0.0003662644803428622</v>
+        <v>0.00426624974851847</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.021265</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H11">
-        <v>0.063795</v>
+        <v>0.044759</v>
       </c>
       <c r="I11">
-        <v>0.0005880616271992926</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J11">
-        <v>0.0005880616271992925</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,33 +1119,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4838249999999999</v>
+        <v>0.5477486666666667</v>
       </c>
       <c r="N11">
-        <v>1.451475</v>
+        <v>1.643246</v>
       </c>
       <c r="O11">
-        <v>0.3248577897383009</v>
+        <v>0.430739219238867</v>
       </c>
       <c r="P11">
-        <v>0.3248577897383008</v>
+        <v>0.430739219238867</v>
       </c>
       <c r="Q11">
-        <v>0.010288538625</v>
+        <v>0.008172227523777777</v>
       </c>
       <c r="R11">
-        <v>0.09259684762499999</v>
+        <v>0.07355004771400001</v>
       </c>
       <c r="S11">
-        <v>0.0001910364004418709</v>
+        <v>0.0001492234608980322</v>
       </c>
       <c r="T11">
-        <v>0.0001910364004418708</v>
+        <v>0.0001492234608980322</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,51 +1163,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.021265</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H12">
-        <v>0.063795</v>
+        <v>0.044759</v>
       </c>
       <c r="I12">
-        <v>0.0005880616271992926</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J12">
-        <v>0.0005880616271992925</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.05018766666666667</v>
+        <v>0.483825</v>
       </c>
       <c r="N12">
-        <v>0.150563</v>
+        <v>1.451475</v>
       </c>
       <c r="O12">
-        <v>0.03369783385615859</v>
+        <v>0.3804708535695413</v>
       </c>
       <c r="P12">
-        <v>0.03369783385615859</v>
+        <v>0.3804708535695413</v>
       </c>
       <c r="Q12">
-        <v>0.001067240731666667</v>
+        <v>0.007218507725</v>
       </c>
       <c r="R12">
-        <v>0.009605166585000002</v>
+        <v>0.064966569525</v>
       </c>
       <c r="S12">
-        <v>1.981640301054403E-05</v>
+        <v>0.0001318087023531299</v>
       </c>
       <c r="T12">
-        <v>1.981640301054403E-05</v>
+        <v>0.0001318087023531299</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1225,51 +1225,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.021265</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H13">
-        <v>0.063795</v>
+        <v>0.044759</v>
       </c>
       <c r="I13">
-        <v>0.0005880616271992926</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J13">
-        <v>0.0005880616271992925</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.027718</v>
+        <v>0.2400743333333334</v>
       </c>
       <c r="N13">
-        <v>0.08315399999999999</v>
+        <v>0.7202230000000001</v>
       </c>
       <c r="O13">
-        <v>0.01861087834643977</v>
+        <v>0.1887899271915918</v>
       </c>
       <c r="P13">
-        <v>0.01861087834643977</v>
+        <v>0.1887899271915918</v>
       </c>
       <c r="Q13">
-        <v>0.0005894232699999999</v>
+        <v>0.003581829028555556</v>
       </c>
       <c r="R13">
-        <v>0.00530480943</v>
+        <v>0.03223646125700001</v>
       </c>
       <c r="S13">
-        <v>1.094434340401545E-05</v>
+        <v>6.540357845286917E-05</v>
       </c>
       <c r="T13">
-        <v>1.094434340401545E-05</v>
+        <v>6.540357845286915E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.9005953333333334</v>
+        <v>0.02822</v>
       </c>
       <c r="H14">
-        <v>2.701786</v>
+        <v>0.08466</v>
       </c>
       <c r="I14">
-        <v>0.02490503443066491</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J14">
-        <v>0.02490503443066491</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.9276133333333334</v>
+        <v>0.5477486666666667</v>
       </c>
       <c r="N14">
-        <v>2.78284</v>
+        <v>1.643246</v>
       </c>
       <c r="O14">
-        <v>0.6228334980591008</v>
+        <v>0.430739219238867</v>
       </c>
       <c r="P14">
-        <v>0.6228334980591007</v>
+        <v>0.430739219238867</v>
       </c>
       <c r="Q14">
-        <v>0.8354042391377779</v>
+        <v>0.01545746737333333</v>
       </c>
       <c r="R14">
-        <v>7.518638152240001</v>
+        <v>0.13911720636</v>
       </c>
       <c r="S14">
-        <v>0.01551168971373337</v>
+        <v>0.0002822506803017807</v>
       </c>
       <c r="T14">
-        <v>0.01551168971373337</v>
+        <v>0.0002822506803017807</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.9005953333333334</v>
+        <v>0.02822</v>
       </c>
       <c r="H15">
-        <v>2.701786</v>
+        <v>0.08466</v>
       </c>
       <c r="I15">
-        <v>0.02490503443066491</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J15">
-        <v>0.02490503443066491</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,33 +1367,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.4838249999999999</v>
+        <v>0.483825</v>
       </c>
       <c r="N15">
         <v>1.451475</v>
       </c>
       <c r="O15">
-        <v>0.3248577897383009</v>
+        <v>0.3804708535695413</v>
       </c>
       <c r="P15">
-        <v>0.3248577897383008</v>
+        <v>0.3804708535695413</v>
       </c>
       <c r="Q15">
-        <v>0.43573053715</v>
+        <v>0.0136535415</v>
       </c>
       <c r="R15">
-        <v>3.92157483435</v>
+        <v>0.1228818735</v>
       </c>
       <c r="S15">
-        <v>0.008090594438502083</v>
+        <v>0.000249311305909783</v>
       </c>
       <c r="T15">
-        <v>0.008090594438502083</v>
+        <v>0.000249311305909783</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,365 +1402,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.9005953333333334</v>
+        <v>0.02822</v>
       </c>
       <c r="H16">
-        <v>2.701786</v>
+        <v>0.08466</v>
       </c>
       <c r="I16">
-        <v>0.02490503443066491</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J16">
-        <v>0.02490503443066491</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.05018766666666667</v>
+        <v>0.2400743333333334</v>
       </c>
       <c r="N16">
-        <v>0.150563</v>
+        <v>0.7202230000000001</v>
       </c>
       <c r="O16">
-        <v>0.03369783385615859</v>
+        <v>0.1887899271915918</v>
       </c>
       <c r="P16">
-        <v>0.03369783385615859</v>
+        <v>0.1887899271915918</v>
       </c>
       <c r="Q16">
-        <v>0.04519877839088889</v>
+        <v>0.006774897686666667</v>
       </c>
       <c r="R16">
-        <v>0.4067890055180001</v>
+        <v>0.06097407918</v>
       </c>
       <c r="S16">
-        <v>0.0008392457124264553</v>
+        <v>0.0001237084597917716</v>
       </c>
       <c r="T16">
-        <v>0.0008392457124264553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.9005953333333334</v>
-      </c>
-      <c r="H17">
-        <v>2.701786</v>
-      </c>
-      <c r="I17">
-        <v>0.02490503443066491</v>
-      </c>
-      <c r="J17">
-        <v>0.02490503443066491</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.027718</v>
-      </c>
-      <c r="N17">
-        <v>0.08315399999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.01861087834643977</v>
-      </c>
-      <c r="P17">
-        <v>0.01861087834643977</v>
-      </c>
-      <c r="Q17">
-        <v>0.02496270144933333</v>
-      </c>
-      <c r="R17">
-        <v>0.224664313044</v>
-      </c>
-      <c r="S17">
-        <v>0.0004635045660029985</v>
-      </c>
-      <c r="T17">
-        <v>0.0004635045660029984</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.3188806666666666</v>
-      </c>
-      <c r="H18">
-        <v>0.956642</v>
-      </c>
-      <c r="I18">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="J18">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.9276133333333334</v>
-      </c>
-      <c r="N18">
-        <v>2.78284</v>
-      </c>
-      <c r="O18">
-        <v>0.6228334980591008</v>
-      </c>
-      <c r="P18">
-        <v>0.6228334980591007</v>
-      </c>
-      <c r="Q18">
-        <v>0.2957979581422222</v>
-      </c>
-      <c r="R18">
-        <v>2.66218162328</v>
-      </c>
-      <c r="S18">
-        <v>0.005492342425020085</v>
-      </c>
-      <c r="T18">
-        <v>0.005492342425020084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.3188806666666666</v>
-      </c>
-      <c r="H19">
-        <v>0.956642</v>
-      </c>
-      <c r="I19">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="J19">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.4838249999999999</v>
-      </c>
-      <c r="N19">
-        <v>1.451475</v>
-      </c>
-      <c r="O19">
-        <v>0.3248577897383009</v>
-      </c>
-      <c r="P19">
-        <v>0.3248577897383008</v>
-      </c>
-      <c r="Q19">
-        <v>0.15428243855</v>
-      </c>
-      <c r="R19">
-        <v>1.38854194695</v>
-      </c>
-      <c r="S19">
-        <v>0.0028646985530451</v>
-      </c>
-      <c r="T19">
-        <v>0.0028646985530451</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.3188806666666666</v>
-      </c>
-      <c r="H20">
-        <v>0.956642</v>
-      </c>
-      <c r="I20">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="J20">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.05018766666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.150563</v>
-      </c>
-      <c r="O20">
-        <v>0.03369783385615859</v>
-      </c>
-      <c r="P20">
-        <v>0.03369783385615859</v>
-      </c>
-      <c r="Q20">
-        <v>0.01600387660511111</v>
-      </c>
-      <c r="R20">
-        <v>0.144034889446</v>
-      </c>
-      <c r="S20">
-        <v>0.0002971581379232363</v>
-      </c>
-      <c r="T20">
-        <v>0.0002971581379232363</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.3188806666666666</v>
-      </c>
-      <c r="H21">
-        <v>0.956642</v>
-      </c>
-      <c r="I21">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="J21">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.027718</v>
-      </c>
-      <c r="N21">
-        <v>0.08315399999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.01861087834643977</v>
-      </c>
-      <c r="P21">
-        <v>0.01861087834643977</v>
-      </c>
-      <c r="Q21">
-        <v>0.008838734318666665</v>
-      </c>
-      <c r="R21">
-        <v>0.079548608868</v>
-      </c>
-      <c r="S21">
-        <v>0.0001641166010299263</v>
-      </c>
-      <c r="T21">
-        <v>0.0001641166010299263</v>
+        <v>0.0001237084597917715</v>
       </c>
     </row>
   </sheetData>
